--- a/Documents/4. 요구분석/1. 기능정 요구사항 정의/2024-01-23 B조 기능적 요구사항 정의 v5.xlsx
+++ b/Documents/4. 요구분석/1. 기능정 요구사항 정의/2024-01-23 B조 기능적 요구사항 정의 v5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JWS85\EzenDongstagram\Documents\4. 요구분석\1. 기능정 요구사항 정의\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MYCOM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E7C32-A529-4335-9083-06DDD5B411B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA1137F-4548-4113-AEC7-066677DA8A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="330" windowWidth="21570" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="1455" windowWidth="21570" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능적 요구사항 정의" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
   <si>
     <t>요구사항 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,12 +469,24 @@
 -성명, 닉네임, 아이디 변경 불가능하다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,8 +502,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +556,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,18 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,6 +710,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,6 +734,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -983,13 +1012,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L32"/>
+  <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
@@ -1000,7 +1029,7 @@
     <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1049,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="99">
+      <c r="A3" s="30" t="s">
+        <v>101</v>
+      </c>
       <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1066,7 @@
         <v>45315</v>
       </c>
       <c r="F3" s="11"/>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="9"/>
@@ -1042,7 +1074,10 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="49.5">
+      <c r="A4" s="30" t="s">
+        <v>101</v>
+      </c>
       <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
@@ -1056,9 +1091,12 @@
         <v>45314</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" ht="49.5">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
       <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1072,9 +1110,12 @@
         <v>45314</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" ht="66">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
       <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
@@ -1087,12 +1128,15 @@
       <c r="E6" s="11">
         <v>45314</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" ht="49.5">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
@@ -1106,9 +1150,12 @@
         <v>45314</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
       <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
@@ -1121,12 +1168,15 @@
       <c r="E8" s="11">
         <v>45314</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="33">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
       <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
@@ -1139,10 +1189,13 @@
       <c r="E9" s="11">
         <v>45314</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F9" s="19"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
       <c r="B10" s="13" t="s">
         <v>19</v>
       </c>
@@ -1155,10 +1208,13 @@
       <c r="E10" s="11">
         <v>45314</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="F10" s="20"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" ht="99">
+      <c r="A11" s="30" t="s">
+        <v>101</v>
+      </c>
       <c r="B11" s="17" t="s">
         <v>20</v>
       </c>
@@ -1171,12 +1227,15 @@
       <c r="E11" s="11">
         <v>45289</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="49.5">
+      <c r="A12" s="30" t="s">
+        <v>101</v>
+      </c>
       <c r="B12" s="13" t="s">
         <v>21</v>
       </c>
@@ -1189,10 +1248,13 @@
       <c r="E12" s="11">
         <v>45289</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="F12" s="19"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" ht="33">
+      <c r="A13" s="30" t="s">
+        <v>101</v>
+      </c>
       <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
@@ -1205,10 +1267,13 @@
       <c r="E13" s="11">
         <v>45289</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F13" s="19"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
       <c r="B14" s="13" t="s">
         <v>28</v>
       </c>
@@ -1221,10 +1286,13 @@
       <c r="E14" s="11">
         <v>45289</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F14" s="19"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
       <c r="B15" s="13" t="s">
         <v>29</v>
       </c>
@@ -1237,10 +1305,13 @@
       <c r="E15" s="11">
         <v>45289</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="19"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
       <c r="B16" s="13" t="s">
         <v>30</v>
       </c>
@@ -1253,10 +1324,13 @@
       <c r="E16" s="11">
         <v>45289</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="F16" s="20"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="66">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
       <c r="B17" s="13" t="s">
         <v>31</v>
       </c>
@@ -1269,12 +1343,15 @@
       <c r="E17" s="11">
         <v>45289</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="18"/>
+      <c r="G17" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="132">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
       <c r="B18" s="13" t="s">
         <v>32</v>
       </c>
@@ -1287,10 +1364,13 @@
       <c r="E18" s="11">
         <v>45289</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="19"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
       <c r="B19" s="13" t="s">
         <v>33</v>
       </c>
@@ -1303,10 +1383,13 @@
       <c r="E19" s="11">
         <v>45289</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="19"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
       <c r="B20" s="13" t="s">
         <v>34</v>
       </c>
@@ -1319,10 +1402,13 @@
       <c r="E20" s="11">
         <v>45289</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F20" s="20"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" ht="33">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
       <c r="B21" s="17" t="s">
         <v>35</v>
       </c>
@@ -1335,12 +1421,15 @@
       <c r="E21" s="11">
         <v>45289</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="18" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
       <c r="B22" s="13" t="s">
         <v>36</v>
       </c>
@@ -1353,10 +1442,13 @@
       <c r="E22" s="11">
         <v>45289</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="19"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
       <c r="B23" s="13" t="s">
         <v>37</v>
       </c>
@@ -1369,10 +1461,13 @@
       <c r="E23" s="11">
         <v>45289</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="F23" s="20"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" ht="66">
+      <c r="A24" s="30" t="s">
+        <v>101</v>
+      </c>
       <c r="B24" s="13" t="s">
         <v>38</v>
       </c>
@@ -1385,12 +1480,15 @@
       <c r="E24" s="11">
         <v>45289</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="18" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
       <c r="B25" s="13" t="s">
         <v>39</v>
       </c>
@@ -1403,10 +1501,13 @@
       <c r="E25" s="11">
         <v>45289</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="F25" s="19"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" ht="33">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
       <c r="B26" s="13" t="s">
         <v>40</v>
       </c>
@@ -1419,10 +1520,13 @@
       <c r="E26" s="11">
         <v>45289</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F26" s="20"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" ht="49.5">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
       <c r="B27" s="13" t="s">
         <v>59</v>
       </c>
@@ -1435,12 +1539,15 @@
       <c r="E27" s="11">
         <v>45289</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="18" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="33">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
       <c r="B28" s="13" t="s">
         <v>60</v>
       </c>
@@ -1453,10 +1560,13 @@
       <c r="E28" s="11">
         <v>45289</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="20"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
       <c r="B29" s="15" t="s">
         <v>79</v>
       </c>
@@ -1470,52 +1580,61 @@
         <v>45317</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="66">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
       <c r="B30" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="24" t="s">
         <v>96</v>
       </c>
       <c r="E30" s="11">
         <v>45320</v>
       </c>
       <c r="F30" s="16"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="2:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" ht="82.5">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
       <c r="B31" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="24" t="s">
         <v>94</v>
       </c>
       <c r="E31" s="11">
         <v>45320</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
       <c r="B32" s="16" t="s">
         <v>97</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="25" t="s">
         <v>99</v>
       </c>
       <c r="E32" s="11">
